--- a/results/A-08.xlsx
+++ b/results/A-08.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6961.137353699098</v>
+        <v>-6950.007835040191</v>
       </c>
       <c r="C2">
-        <v>13603.33399305451</v>
+        <v>13573.29778265877</v>
       </c>
       <c r="D2">
-        <v>-6022.589425749385</v>
+        <v>-6004.444591846527</v>
       </c>
       <c r="E2">
-        <v>-619.6072136060601</v>
+        <v>-618.8453557719538</v>
       </c>
       <c r="F2">
-        <v>56.56559306054322</v>
+        <v>56.42082461977606</v>
       </c>
       <c r="G2">
-        <v>45.8098551833728</v>
+        <v>45.89295856732645</v>
       </c>
       <c r="H2">
-        <v>56.8396498024486</v>
+        <v>56.68861583280625</v>
       </c>
       <c r="I2">
-        <v>45.3102051580405</v>
+        <v>45.36862496030733</v>
       </c>
       <c r="J2">
-        <v>56.50688918930359</v>
+        <v>56.36079380891869</v>
       </c>
       <c r="K2">
-        <v>45.20058695898825</v>
+        <v>45.21879701254443</v>
       </c>
       <c r="L2">
-        <v>54.94448193385585</v>
+        <v>54.92858262148599</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>45.56666572420784</v>
+        <v>45.60957459620175</v>
       </c>
       <c r="P2">
-        <v>53.60369917964198</v>
+        <v>53.57777798835218</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>9.245745896209936</v>
+        <v>9.430764574722048</v>
       </c>
       <c r="S2">
-        <v>-16.85539492591041</v>
+        <v>-17.12936487511296</v>
       </c>
       <c r="T2">
-        <v>7.609649029700475</v>
+        <v>7.698600300390913</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-99.57559973739002</v>
+        <v>-102.445518799464</v>
       </c>
       <c r="Y2">
-        <v>-159.5558360902147</v>
+        <v>-157.9190387366542</v>
       </c>
       <c r="Z2">
-        <v>-118.9252094703116</v>
+        <v>-120.9519319754887</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-9.245745896209936</v>
+        <v>-9.430764574722048</v>
       </c>
       <c r="AF2">
-        <v>7.609649029700475</v>
+        <v>7.698600300390913</v>
       </c>
       <c r="AG2">
-        <v>9.245745896209936</v>
+        <v>9.430764574722048</v>
       </c>
       <c r="AH2">
-        <v>-16.85539492591041</v>
+        <v>-17.12936487511296</v>
       </c>
       <c r="AI2">
-        <v>7.609649029700475</v>
+        <v>7.698600300390913</v>
       </c>
       <c r="AJ2">
-        <v>9.245745896209936</v>
+        <v>9.430764574722048</v>
       </c>
       <c r="AK2">
-        <v>-7.609649029700475</v>
+        <v>-7.698600300390913</v>
       </c>
       <c r="AL2">
-        <v>29.99011817641235</v>
+        <v>27.73675996859511</v>
       </c>
       <c r="AM2">
-        <v>-20.31531330995158</v>
+        <v>-18.48355338058273</v>
       </c>
       <c r="AN2">
-        <v>-99.57559973739002</v>
+        <v>-102.445518799464</v>
       </c>
       <c r="AO2">
-        <v>-159.5558360902147</v>
+        <v>-157.9190387366542</v>
       </c>
       <c r="AP2">
-        <v>-118.9252094703116</v>
+        <v>-120.9519319754887</v>
       </c>
       <c r="AQ2">
-        <v>-29.99011817641235</v>
+        <v>-27.73675996859511</v>
       </c>
       <c r="AR2">
-        <v>20.31531330995158</v>
+        <v>18.48355338058273</v>
       </c>
       <c r="AS2">
-        <v>56.56559306054322</v>
+        <v>56.42082461977606</v>
       </c>
       <c r="AT2">
-        <v>56.56559306054322</v>
+        <v>56.42082461977606</v>
       </c>
       <c r="AU2">
-        <v>56.83964980244866</v>
+        <v>56.68861583280631</v>
       </c>
       <c r="AV2">
-        <v>56.83964980244866</v>
+        <v>56.68861583280631</v>
       </c>
       <c r="AW2">
-        <v>56.8396498024486</v>
+        <v>56.68861583280625</v>
       </c>
       <c r="AX2">
-        <v>56.50688918930359</v>
+        <v>56.36079380891863</v>
       </c>
       <c r="AY2">
-        <v>56.50688918930359</v>
+        <v>56.36079380891869</v>
       </c>
       <c r="AZ2">
-        <v>45.8098551833728</v>
+        <v>45.89295856732645</v>
       </c>
       <c r="BA2">
-        <v>45.8098551833728</v>
+        <v>45.89295856732645</v>
       </c>
       <c r="BB2">
-        <v>45.3102051580405</v>
+        <v>45.36862496030733</v>
       </c>
       <c r="BC2">
-        <v>45.60321175960229</v>
+        <v>45.68985904592068</v>
       </c>
       <c r="BD2">
-        <v>44.95420127752283</v>
+        <v>44.97511407305689</v>
       </c>
       <c r="BE2">
-        <v>45.20058695898825</v>
+        <v>45.21879701254443</v>
       </c>
       <c r="BF2">
-        <v>45.20058695898831</v>
+        <v>45.21879701254443</v>
       </c>
       <c r="BG2">
-        <v>54.94448193385585</v>
+        <v>54.92858262148599</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>45.56666572420784</v>
+        <v>45.60957459620175</v>
       </c>
       <c r="BK2">
-        <v>53.60369917964198</v>
+        <v>53.57777798835218</v>
       </c>
       <c r="BL2">
         <v>45</v>
